--- a/INTLINE/data/193/ABS/5206042_Unit_Labour_Costs.xlsx
+++ b/INTLINE/data/193/ABS/5206042_Unit_Labour_Costs.xlsx
@@ -12,80 +12,80 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2433066L">Data1!$V$1:$V$10,Data1!$V$11:$V$156</definedName>
-    <definedName name="A2433066L_Data">Data1!$V$11:$V$156</definedName>
-    <definedName name="A2433066L_Latest">Data1!$V$156</definedName>
-    <definedName name="A2433067R">Data1!$B$1:$B$10,Data1!$B$11:$B$156</definedName>
-    <definedName name="A2433067R_Data">Data1!$B$11:$B$156</definedName>
-    <definedName name="A2433067R_Latest">Data1!$B$156</definedName>
-    <definedName name="A2433068T">Data1!$C$1:$C$10,Data1!$C$11:$C$156</definedName>
-    <definedName name="A2433068T_Data">Data1!$C$11:$C$156</definedName>
-    <definedName name="A2433068T_Latest">Data1!$C$156</definedName>
-    <definedName name="A2433069V">Data1!$D$1:$D$10,Data1!$D$11:$D$156</definedName>
-    <definedName name="A2433069V_Data">Data1!$D$11:$D$156</definedName>
-    <definedName name="A2433069V_Latest">Data1!$D$156</definedName>
-    <definedName name="A2433070C">Data1!$H$1:$H$10,Data1!$H$11:$H$156</definedName>
-    <definedName name="A2433070C_Data">Data1!$H$11:$H$156</definedName>
-    <definedName name="A2433070C_Latest">Data1!$H$156</definedName>
-    <definedName name="A2433071F">Data1!$I$1:$I$10,Data1!$I$11:$I$156</definedName>
-    <definedName name="A2433071F_Data">Data1!$I$11:$I$156</definedName>
-    <definedName name="A2433071F_Latest">Data1!$I$156</definedName>
-    <definedName name="A2433072J">Data1!$J$1:$J$10,Data1!$J$11:$J$156</definedName>
-    <definedName name="A2433072J_Data">Data1!$J$11:$J$156</definedName>
-    <definedName name="A2433072J_Latest">Data1!$J$156</definedName>
-    <definedName name="A2433073K">Data1!$N$1:$N$10,Data1!$N$11:$N$156</definedName>
-    <definedName name="A2433073K_Data">Data1!$N$11:$N$156</definedName>
-    <definedName name="A2433073K_Latest">Data1!$N$156</definedName>
-    <definedName name="A2433074L">Data1!$O$1:$O$10,Data1!$O$11:$O$156</definedName>
-    <definedName name="A2433074L_Data">Data1!$O$11:$O$156</definedName>
-    <definedName name="A2433074L_Latest">Data1!$O$156</definedName>
-    <definedName name="A2433075R">Data1!$P$1:$P$10,Data1!$P$11:$P$156</definedName>
-    <definedName name="A2433075R_Data">Data1!$P$11:$P$156</definedName>
-    <definedName name="A2433075R_Latest">Data1!$P$156</definedName>
-    <definedName name="A2433076T">Data1!$T$1:$T$10,Data1!$T$11:$T$156</definedName>
-    <definedName name="A2433076T_Data">Data1!$T$11:$T$156</definedName>
-    <definedName name="A2433076T_Latest">Data1!$T$156</definedName>
-    <definedName name="A2433077V">Data1!$U$1:$U$10,Data1!$U$11:$U$156</definedName>
-    <definedName name="A2433077V_Data">Data1!$U$11:$U$156</definedName>
-    <definedName name="A2433077V_Latest">Data1!$U$156</definedName>
-    <definedName name="A2435270J">Data1!$E$1:$E$10,Data1!$E$12:$E$156</definedName>
-    <definedName name="A2435270J_Data">Data1!$E$12:$E$156</definedName>
-    <definedName name="A2435270J_Latest">Data1!$E$156</definedName>
-    <definedName name="A2435271K">Data1!$K$1:$K$10,Data1!$K$12:$K$156</definedName>
-    <definedName name="A2435271K_Data">Data1!$K$12:$K$156</definedName>
-    <definedName name="A2435271K_Latest">Data1!$K$156</definedName>
-    <definedName name="A2435272L">Data1!$F$1:$F$10,Data1!$F$12:$F$156</definedName>
-    <definedName name="A2435272L_Data">Data1!$F$12:$F$156</definedName>
-    <definedName name="A2435272L_Latest">Data1!$F$156</definedName>
-    <definedName name="A2435273R">Data1!$L$1:$L$10,Data1!$L$12:$L$156</definedName>
-    <definedName name="A2435273R_Data">Data1!$L$12:$L$156</definedName>
-    <definedName name="A2435273R_Latest">Data1!$L$156</definedName>
-    <definedName name="A2435274T">Data1!$G$1:$G$10,Data1!$G$12:$G$156</definedName>
-    <definedName name="A2435274T_Data">Data1!$G$12:$G$156</definedName>
-    <definedName name="A2435274T_Latest">Data1!$G$156</definedName>
-    <definedName name="A2435275V">Data1!$M$1:$M$10,Data1!$M$12:$M$156</definedName>
-    <definedName name="A2435275V_Data">Data1!$M$12:$M$156</definedName>
-    <definedName name="A2435275V_Latest">Data1!$M$156</definedName>
-    <definedName name="A2435276W">Data1!$Q$1:$Q$10,Data1!$Q$12:$Q$156</definedName>
-    <definedName name="A2435276W_Data">Data1!$Q$12:$Q$156</definedName>
-    <definedName name="A2435276W_Latest">Data1!$Q$156</definedName>
-    <definedName name="A2435277X">Data1!$W$1:$W$10,Data1!$W$12:$W$156</definedName>
-    <definedName name="A2435277X_Data">Data1!$W$12:$W$156</definedName>
-    <definedName name="A2435277X_Latest">Data1!$W$156</definedName>
-    <definedName name="A2435278A">Data1!$R$1:$R$10,Data1!$R$12:$R$156</definedName>
-    <definedName name="A2435278A_Data">Data1!$R$12:$R$156</definedName>
-    <definedName name="A2435278A_Latest">Data1!$R$156</definedName>
-    <definedName name="A2435279C">Data1!$X$1:$X$10,Data1!$X$12:$X$156</definedName>
-    <definedName name="A2435279C_Data">Data1!$X$12:$X$156</definedName>
-    <definedName name="A2435279C_Latest">Data1!$X$156</definedName>
-    <definedName name="A2435280L">Data1!$S$1:$S$10,Data1!$S$12:$S$156</definedName>
-    <definedName name="A2435280L_Data">Data1!$S$12:$S$156</definedName>
-    <definedName name="A2435280L_Latest">Data1!$S$156</definedName>
-    <definedName name="A2435281R">Data1!$Y$1:$Y$10,Data1!$Y$12:$Y$156</definedName>
-    <definedName name="A2435281R_Data">Data1!$Y$12:$Y$156</definedName>
-    <definedName name="A2435281R_Latest">Data1!$Y$156</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$156</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$156</definedName>
+    <definedName name="A2433066L">Data1!$V$1:$V$10,Data1!$V$11:$V$157</definedName>
+    <definedName name="A2433066L_Data">Data1!$V$11:$V$157</definedName>
+    <definedName name="A2433066L_Latest">Data1!$V$157</definedName>
+    <definedName name="A2433067R">Data1!$B$1:$B$10,Data1!$B$11:$B$157</definedName>
+    <definedName name="A2433067R_Data">Data1!$B$11:$B$157</definedName>
+    <definedName name="A2433067R_Latest">Data1!$B$157</definedName>
+    <definedName name="A2433068T">Data1!$C$1:$C$10,Data1!$C$11:$C$157</definedName>
+    <definedName name="A2433068T_Data">Data1!$C$11:$C$157</definedName>
+    <definedName name="A2433068T_Latest">Data1!$C$157</definedName>
+    <definedName name="A2433069V">Data1!$D$1:$D$10,Data1!$D$11:$D$157</definedName>
+    <definedName name="A2433069V_Data">Data1!$D$11:$D$157</definedName>
+    <definedName name="A2433069V_Latest">Data1!$D$157</definedName>
+    <definedName name="A2433070C">Data1!$H$1:$H$10,Data1!$H$11:$H$157</definedName>
+    <definedName name="A2433070C_Data">Data1!$H$11:$H$157</definedName>
+    <definedName name="A2433070C_Latest">Data1!$H$157</definedName>
+    <definedName name="A2433071F">Data1!$I$1:$I$10,Data1!$I$11:$I$157</definedName>
+    <definedName name="A2433071F_Data">Data1!$I$11:$I$157</definedName>
+    <definedName name="A2433071F_Latest">Data1!$I$157</definedName>
+    <definedName name="A2433072J">Data1!$J$1:$J$10,Data1!$J$11:$J$157</definedName>
+    <definedName name="A2433072J_Data">Data1!$J$11:$J$157</definedName>
+    <definedName name="A2433072J_Latest">Data1!$J$157</definedName>
+    <definedName name="A2433073K">Data1!$N$1:$N$10,Data1!$N$11:$N$157</definedName>
+    <definedName name="A2433073K_Data">Data1!$N$11:$N$157</definedName>
+    <definedName name="A2433073K_Latest">Data1!$N$157</definedName>
+    <definedName name="A2433074L">Data1!$O$1:$O$10,Data1!$O$11:$O$157</definedName>
+    <definedName name="A2433074L_Data">Data1!$O$11:$O$157</definedName>
+    <definedName name="A2433074L_Latest">Data1!$O$157</definedName>
+    <definedName name="A2433075R">Data1!$P$1:$P$10,Data1!$P$11:$P$157</definedName>
+    <definedName name="A2433075R_Data">Data1!$P$11:$P$157</definedName>
+    <definedName name="A2433075R_Latest">Data1!$P$157</definedName>
+    <definedName name="A2433076T">Data1!$T$1:$T$10,Data1!$T$11:$T$157</definedName>
+    <definedName name="A2433076T_Data">Data1!$T$11:$T$157</definedName>
+    <definedName name="A2433076T_Latest">Data1!$T$157</definedName>
+    <definedName name="A2433077V">Data1!$U$1:$U$10,Data1!$U$11:$U$157</definedName>
+    <definedName name="A2433077V_Data">Data1!$U$11:$U$157</definedName>
+    <definedName name="A2433077V_Latest">Data1!$U$157</definedName>
+    <definedName name="A2435270J">Data1!$E$1:$E$10,Data1!$E$12:$E$157</definedName>
+    <definedName name="A2435270J_Data">Data1!$E$12:$E$157</definedName>
+    <definedName name="A2435270J_Latest">Data1!$E$157</definedName>
+    <definedName name="A2435271K">Data1!$K$1:$K$10,Data1!$K$12:$K$157</definedName>
+    <definedName name="A2435271K_Data">Data1!$K$12:$K$157</definedName>
+    <definedName name="A2435271K_Latest">Data1!$K$157</definedName>
+    <definedName name="A2435272L">Data1!$F$1:$F$10,Data1!$F$12:$F$157</definedName>
+    <definedName name="A2435272L_Data">Data1!$F$12:$F$157</definedName>
+    <definedName name="A2435272L_Latest">Data1!$F$157</definedName>
+    <definedName name="A2435273R">Data1!$L$1:$L$10,Data1!$L$12:$L$157</definedName>
+    <definedName name="A2435273R_Data">Data1!$L$12:$L$157</definedName>
+    <definedName name="A2435273R_Latest">Data1!$L$157</definedName>
+    <definedName name="A2435274T">Data1!$G$1:$G$10,Data1!$G$12:$G$157</definedName>
+    <definedName name="A2435274T_Data">Data1!$G$12:$G$157</definedName>
+    <definedName name="A2435274T_Latest">Data1!$G$157</definedName>
+    <definedName name="A2435275V">Data1!$M$1:$M$10,Data1!$M$12:$M$157</definedName>
+    <definedName name="A2435275V_Data">Data1!$M$12:$M$157</definedName>
+    <definedName name="A2435275V_Latest">Data1!$M$157</definedName>
+    <definedName name="A2435276W">Data1!$Q$1:$Q$10,Data1!$Q$12:$Q$157</definedName>
+    <definedName name="A2435276W_Data">Data1!$Q$12:$Q$157</definedName>
+    <definedName name="A2435276W_Latest">Data1!$Q$157</definedName>
+    <definedName name="A2435277X">Data1!$W$1:$W$10,Data1!$W$12:$W$157</definedName>
+    <definedName name="A2435277X_Data">Data1!$W$12:$W$157</definedName>
+    <definedName name="A2435277X_Latest">Data1!$W$157</definedName>
+    <definedName name="A2435278A">Data1!$R$1:$R$10,Data1!$R$12:$R$157</definedName>
+    <definedName name="A2435278A_Data">Data1!$R$12:$R$157</definedName>
+    <definedName name="A2435278A_Latest">Data1!$R$157</definedName>
+    <definedName name="A2435279C">Data1!$X$1:$X$10,Data1!$X$12:$X$157</definedName>
+    <definedName name="A2435279C_Data">Data1!$X$12:$X$157</definedName>
+    <definedName name="A2435279C_Latest">Data1!$X$157</definedName>
+    <definedName name="A2435280L">Data1!$S$1:$S$10,Data1!$S$12:$S$157</definedName>
+    <definedName name="A2435280L_Data">Data1!$S$12:$S$157</definedName>
+    <definedName name="A2435280L_Latest">Data1!$S$157</definedName>
+    <definedName name="A2435281R">Data1!$Y$1:$Y$10,Data1!$Y$12:$Y$157</definedName>
+    <definedName name="A2435281R_Data">Data1!$Y$12:$Y$157</definedName>
+    <definedName name="A2435281R_Latest">Data1!$Y$157</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$157</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$157</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1279,6 +1279,110 @@
         </r>
       </text>
     </comment>
+    <comment ref="D157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2160,10 +2264,10 @@
         <v>31291</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>17</v>
@@ -2192,10 +2296,10 @@
         <v>31291</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>17</v>
@@ -2224,10 +2328,10 @@
         <v>31291</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>17</v>
@@ -2256,10 +2360,10 @@
         <v>31382</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>26</v>
@@ -2288,10 +2392,10 @@
         <v>31382</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>26</v>
@@ -2320,10 +2424,10 @@
         <v>31382</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>26</v>
@@ -2352,10 +2456,10 @@
         <v>31291</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>17</v>
@@ -2384,10 +2488,10 @@
         <v>31291</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>17</v>
@@ -2416,10 +2520,10 @@
         <v>31291</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>17</v>
@@ -2448,10 +2552,10 @@
         <v>31382</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>26</v>
@@ -2480,10 +2584,10 @@
         <v>31382</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>26</v>
@@ -2512,10 +2616,10 @@
         <v>31382</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>26</v>
@@ -2544,10 +2648,10 @@
         <v>31291</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>17</v>
@@ -2576,10 +2680,10 @@
         <v>31291</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>17</v>
@@ -2608,10 +2712,10 @@
         <v>31291</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>17</v>
@@ -2640,10 +2744,10 @@
         <v>31382</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>26</v>
@@ -2672,10 +2776,10 @@
         <v>31382</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>26</v>
@@ -2704,10 +2808,10 @@
         <v>31382</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>26</v>
@@ -2736,10 +2840,10 @@
         <v>31291</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>17</v>
@@ -2768,10 +2872,10 @@
         <v>31291</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>17</v>
@@ -2800,10 +2904,10 @@
         <v>31291</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>17</v>
@@ -2832,10 +2936,10 @@
         <v>31382</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>26</v>
@@ -2864,10 +2968,10 @@
         <v>31382</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>26</v>
@@ -2896,10 +3000,10 @@
         <v>31382</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>26</v>
@@ -2958,7 +3062,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y156"/>
+  <dimension ref="A1:Y157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -3513,76 +3617,76 @@
         <v>14</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -3590,76 +3694,76 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
+        <v>147</v>
+      </c>
+      <c r="C9" s="1">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1">
+        <v>147</v>
+      </c>
+      <c r="E9" s="1">
         <v>146</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9" s="1">
         <v>146</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G9" s="1">
         <v>146</v>
       </c>
-      <c r="E9" s="1">
-        <v>145</v>
-      </c>
-      <c r="F9" s="1">
-        <v>145</v>
-      </c>
-      <c r="G9" s="1">
-        <v>145</v>
-      </c>
       <c r="H9" s="1">
+        <v>147</v>
+      </c>
+      <c r="I9" s="1">
+        <v>147</v>
+      </c>
+      <c r="J9" s="1">
+        <v>147</v>
+      </c>
+      <c r="K9" s="1">
         <v>146</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <v>146</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9" s="1">
         <v>146</v>
       </c>
-      <c r="K9" s="1">
-        <v>145</v>
-      </c>
-      <c r="L9" s="1">
-        <v>145</v>
-      </c>
-      <c r="M9" s="1">
-        <v>145</v>
-      </c>
       <c r="N9" s="1">
+        <v>147</v>
+      </c>
+      <c r="O9" s="1">
+        <v>147</v>
+      </c>
+      <c r="P9" s="1">
+        <v>147</v>
+      </c>
+      <c r="Q9" s="1">
         <v>146</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9" s="1">
         <v>146</v>
       </c>
-      <c r="P9" s="1">
+      <c r="S9" s="1">
         <v>146</v>
       </c>
-      <c r="Q9" s="1">
-        <v>145</v>
-      </c>
-      <c r="R9" s="1">
-        <v>145</v>
-      </c>
-      <c r="S9" s="1">
-        <v>145</v>
-      </c>
       <c r="T9" s="1">
+        <v>147</v>
+      </c>
+      <c r="U9" s="1">
+        <v>147</v>
+      </c>
+      <c r="V9" s="1">
+        <v>147</v>
+      </c>
+      <c r="W9" s="1">
         <v>146</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9" s="1">
         <v>146</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Y9" s="1">
         <v>146</v>
-      </c>
-      <c r="W9" s="1">
-        <v>145</v>
-      </c>
-      <c r="X9" s="1">
-        <v>145</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -3845,7 +3949,7 @@
         <v>118.3</v>
       </c>
       <c r="V12" s="8">
-        <v>117.2</v>
+        <v>117.1</v>
       </c>
       <c r="W12" s="8">
         <v>3.3</v>
@@ -4037,7 +4141,7 @@
         <v>121</v>
       </c>
       <c r="I15" s="8">
-        <v>122.6</v>
+        <v>122.7</v>
       </c>
       <c r="J15" s="8">
         <v>120.7</v>
@@ -4307,7 +4411,7 @@
         <v>114.3</v>
       </c>
       <c r="V18" s="8">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
       <c r="W18" s="8">
         <v>-1.7</v>
@@ -4384,7 +4488,7 @@
         <v>115.6</v>
       </c>
       <c r="V19" s="8">
-        <v>114.3</v>
+        <v>114.2</v>
       </c>
       <c r="W19" s="8">
         <v>-2.2000000000000002</v>
@@ -4769,7 +4873,7 @@
         <v>113.1</v>
       </c>
       <c r="V24" s="8">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="W24" s="8">
         <v>4.3</v>
@@ -4946,7 +5050,7 @@
         <v>53.5</v>
       </c>
       <c r="D27" s="8">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E27" s="8">
         <v>-2.6</v>
@@ -5349,7 +5453,7 @@
         <v>116.3</v>
       </c>
       <c r="J32" s="8">
-        <v>116.1</v>
+        <v>116.2</v>
       </c>
       <c r="K32" s="8">
         <v>-1</v>
@@ -5713,7 +5817,7 @@
         <v>59.9</v>
       </c>
       <c r="C37" s="8">
-        <v>59</v>
+        <v>58.9</v>
       </c>
       <c r="D37" s="8">
         <v>58.6</v>
@@ -6057,7 +6161,7 @@
         <v>58</v>
       </c>
       <c r="O41" s="8">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="P41" s="8">
         <v>57.2</v>
@@ -6383,7 +6487,7 @@
         <v>114.1</v>
       </c>
       <c r="U45" s="8">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="V45" s="8">
         <v>111.3</v>
@@ -6670,7 +6774,7 @@
         <v>0.5</v>
       </c>
       <c r="N49" s="8">
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="O49" s="8">
         <v>58.6</v>
@@ -6966,7 +7070,7 @@
         <v>114.6</v>
       </c>
       <c r="J53" s="8">
-        <v>113.6</v>
+        <v>113.7</v>
       </c>
       <c r="K53" s="8">
         <v>6</v>
@@ -6999,7 +7103,7 @@
         <v>113.7</v>
       </c>
       <c r="U53" s="8">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="V53" s="8">
         <v>111.3</v>
@@ -7407,7 +7511,7 @@
         <v>63.4</v>
       </c>
       <c r="C59" s="8">
-        <v>63.1</v>
+        <v>63</v>
       </c>
       <c r="D59" s="8">
         <v>62.4</v>
@@ -8536,7 +8640,7 @@
         <v>0.1</v>
       </c>
       <c r="T73" s="8">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="U73" s="8">
         <v>110.7</v>
@@ -8648,7 +8752,7 @@
         <v>-0.2</v>
       </c>
       <c r="F75" s="8">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G75" s="8">
         <v>0</v>
@@ -9152,7 +9256,7 @@
         <v>0.1</v>
       </c>
       <c r="T81" s="8">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="U81" s="8">
         <v>108.6</v>
@@ -9620,7 +9724,7 @@
         <v>109.4</v>
       </c>
       <c r="V87" s="8">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="W87" s="8">
         <v>1.1000000000000001</v>
@@ -9774,7 +9878,7 @@
         <v>108.4</v>
       </c>
       <c r="V89" s="8">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="W89" s="8">
         <v>1.3</v>
@@ -10005,7 +10109,7 @@
         <v>106.6</v>
       </c>
       <c r="V92" s="8">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="W92" s="8">
         <v>-2</v>
@@ -10182,7 +10286,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="D95" s="8">
-        <v>77.8</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E95" s="8">
         <v>0.5</v>
@@ -10194,7 +10298,7 @@
         <v>1.7</v>
       </c>
       <c r="H95" s="8">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="I95" s="8">
         <v>106.2</v>
@@ -10292,7 +10396,7 @@
         <v>78.7</v>
       </c>
       <c r="O96" s="8">
-        <v>79.7</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="P96" s="8">
         <v>78.7</v>
@@ -10342,7 +10446,7 @@
         <v>2.9</v>
       </c>
       <c r="F97" s="8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G97" s="8">
         <v>0.6</v>
@@ -10354,7 +10458,7 @@
         <v>106.2</v>
       </c>
       <c r="J97" s="8">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="K97" s="8">
         <v>2.1</v>
@@ -10378,7 +10482,7 @@
         <v>2</v>
       </c>
       <c r="R97" s="8">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="S97" s="8">
         <v>0.4</v>
@@ -10553,7 +10657,7 @@
         <v>0.9</v>
       </c>
       <c r="Y99" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
@@ -10804,7 +10908,7 @@
         <v>0.4</v>
       </c>
       <c r="F103" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G103" s="8">
         <v>1.2</v>
@@ -10872,7 +10976,7 @@
         <v>84.6</v>
       </c>
       <c r="C104" s="8">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="D104" s="8">
         <v>85.4</v>
@@ -10899,7 +11003,7 @@
         <v>-2.8</v>
       </c>
       <c r="L104" s="8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M104" s="8">
         <v>-1</v>
@@ -10935,7 +11039,7 @@
         <v>-0.9</v>
       </c>
       <c r="X104" s="8">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="Y104" s="8">
         <v>-1.4</v>
@@ -11023,7 +11127,7 @@
         <v>39965</v>
       </c>
       <c r="B106" s="8">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="C106" s="8">
         <v>84.2</v>
@@ -11044,7 +11148,7 @@
         <v>105.3</v>
       </c>
       <c r="I106" s="8">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="J106" s="8">
         <v>103.1</v>
@@ -11177,7 +11281,7 @@
         <v>40148</v>
       </c>
       <c r="B108" s="8">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="C108" s="8">
         <v>86.1</v>
@@ -11225,7 +11329,7 @@
         <v>-0.6</v>
       </c>
       <c r="R108" s="8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S108" s="8">
         <v>0.3</v>
@@ -11355,7 +11459,7 @@
         <v>103.3</v>
       </c>
       <c r="J110" s="8">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="K110" s="8">
         <v>-0.4</v>
@@ -11426,7 +11530,7 @@
         <v>2</v>
       </c>
       <c r="H111" s="8">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="I111" s="8">
         <v>104.4</v>
@@ -11859,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Y116" s="8">
         <v>0.2</v>
@@ -11918,7 +12022,7 @@
         <v>3</v>
       </c>
       <c r="R117" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S117" s="8">
         <v>-0.1</v>
@@ -12457,7 +12561,7 @@
         <v>-0.1</v>
       </c>
       <c r="R124" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S124" s="8">
         <v>-0.4</v>
@@ -12522,7 +12626,7 @@
         <v>-0.5</v>
       </c>
       <c r="N125" s="8">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="O125" s="8">
         <v>95</v>
@@ -12617,7 +12721,7 @@
         <v>0.7</v>
       </c>
       <c r="T126" s="8">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="U126" s="8">
         <v>104.7</v>
@@ -12664,13 +12768,13 @@
         <v>105.4</v>
       </c>
       <c r="J127" s="8">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="K127" s="8">
         <v>0.2</v>
       </c>
       <c r="L127" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="M127" s="8">
         <v>0.6</v>
@@ -12759,7 +12863,7 @@
         <v>96</v>
       </c>
       <c r="P128" s="8">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="Q128" s="8">
         <v>0.2</v>
@@ -12854,7 +12958,7 @@
         <v>104.8</v>
       </c>
       <c r="V129" s="8">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="W129" s="8">
         <v>0.8</v>
@@ -12984,7 +13088,7 @@
         <v>0.8</v>
       </c>
       <c r="N131" s="8">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="O131" s="8">
         <v>96.5</v>
@@ -13005,7 +13109,7 @@
         <v>106.4</v>
       </c>
       <c r="U131" s="8">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="V131" s="8">
         <v>106.1</v>
@@ -13055,7 +13159,7 @@
         <v>-1.3</v>
       </c>
       <c r="L132" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M132" s="8">
         <v>0.6</v>
@@ -13073,7 +13177,7 @@
         <v>-0.3</v>
       </c>
       <c r="R132" s="8">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="S132" s="8">
         <v>-0.3</v>
@@ -13085,7 +13189,7 @@
         <v>107.2</v>
       </c>
       <c r="V132" s="8">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="W132" s="8">
         <v>-0.1</v>
@@ -13159,7 +13263,7 @@
         <v>108</v>
       </c>
       <c r="U133" s="8">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="V133" s="8">
         <v>106</v>
@@ -13274,7 +13378,7 @@
         <v>-0.4</v>
       </c>
       <c r="H135" s="8">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="I135" s="8">
         <v>105.3</v>
@@ -13381,7 +13485,7 @@
         <v>-1.5</v>
       </c>
       <c r="R136" s="8">
-        <v>-1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="S136" s="8">
         <v>0</v>
@@ -13393,7 +13497,7 @@
         <v>102.5</v>
       </c>
       <c r="V136" s="8">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="W136" s="8">
         <v>-4.0999999999999996</v>
@@ -13440,7 +13544,7 @@
         <v>1.3</v>
       </c>
       <c r="L137" s="8">
-        <v>-1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="M137" s="8">
         <v>-1.4</v>
@@ -13499,7 +13603,7 @@
         <v>0.7</v>
       </c>
       <c r="F138" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G138" s="8">
         <v>0.9</v>
@@ -13529,13 +13633,13 @@
         <v>96.7</v>
       </c>
       <c r="P138" s="8">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="Q138" s="8">
         <v>0.4</v>
       </c>
       <c r="R138" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S138" s="8">
         <v>0.9</v>
@@ -13553,7 +13657,7 @@
         <v>1.9</v>
       </c>
       <c r="X138" s="8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y138" s="8">
         <v>0.6</v>
@@ -13612,7 +13716,7 @@
         <v>0.2</v>
       </c>
       <c r="R139" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S139" s="8">
         <v>0.7</v>
@@ -13630,7 +13734,7 @@
         <v>-1</v>
       </c>
       <c r="X139" s="8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Y139" s="8">
         <v>0.7</v>
@@ -13644,7 +13748,7 @@
         <v>96.3</v>
       </c>
       <c r="C140" s="8">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="D140" s="8">
         <v>96.5</v>
@@ -13689,16 +13793,16 @@
         <v>0.2</v>
       </c>
       <c r="R140" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S140" s="8">
         <v>0.7</v>
       </c>
       <c r="T140" s="8">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="U140" s="8">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="V140" s="8">
         <v>102.5</v>
@@ -13730,7 +13834,7 @@
         <v>2</v>
       </c>
       <c r="F141" s="8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G141" s="8">
         <v>0.1</v>
@@ -13766,10 +13870,10 @@
         <v>1.5</v>
       </c>
       <c r="R141" s="8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="S141" s="8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="T141" s="8">
         <v>103.1</v>
@@ -13807,7 +13911,7 @@
         <v>-0.6</v>
       </c>
       <c r="F142" s="8">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G142" s="8">
         <v>0.2</v>
@@ -13834,7 +13938,7 @@
         <v>97.9</v>
       </c>
       <c r="O142" s="8">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="P142" s="8">
         <v>97.1</v>
@@ -13861,7 +13965,7 @@
         <v>-0.4</v>
       </c>
       <c r="X142" s="8">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="Y142" s="8">
         <v>-0.7</v>
@@ -13884,7 +13988,7 @@
         <v>1.2</v>
       </c>
       <c r="F143" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G143" s="8">
         <v>0.7</v>
@@ -13929,7 +14033,7 @@
         <v>101.8</v>
       </c>
       <c r="U143" s="8">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="V143" s="8">
         <v>101</v>
@@ -13952,7 +14056,7 @@
         <v>98.2</v>
       </c>
       <c r="C144" s="8">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="D144" s="8">
         <v>98.8</v>
@@ -13988,13 +14092,13 @@
         <v>99.1</v>
       </c>
       <c r="O144" s="8">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="P144" s="8">
         <v>99</v>
       </c>
       <c r="Q144" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R144" s="8">
         <v>0.9</v>
@@ -14044,7 +14148,7 @@
         <v>0.5</v>
       </c>
       <c r="H145" s="8">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="I145" s="8">
         <v>101.7</v>
@@ -14065,7 +14169,7 @@
         <v>100.7</v>
       </c>
       <c r="O145" s="8">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="P145" s="8">
         <v>99.2</v>
@@ -14074,16 +14178,16 @@
         <v>1.6</v>
       </c>
       <c r="R145" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S145" s="8">
         <v>0.1</v>
       </c>
       <c r="T145" s="8">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="U145" s="8">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="V145" s="8">
         <v>100.2</v>
@@ -14106,14 +14210,14 @@
         <v>101.9</v>
       </c>
       <c r="C146" s="8">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8">
         <v>1</v>
       </c>
       <c r="F146" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8">
@@ -14124,7 +14228,7 @@
       </c>
       <c r="J146" s="8"/>
       <c r="K146" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L146" s="8">
         <v>0</v>
@@ -14141,7 +14245,7 @@
         <v>0.9</v>
       </c>
       <c r="R146" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S146" s="8"/>
       <c r="T146" s="8">
@@ -14174,11 +14278,11 @@
         <v>0.5</v>
       </c>
       <c r="F147" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="I147" s="8">
         <v>101.4</v>
@@ -14192,17 +14296,17 @@
       </c>
       <c r="M147" s="8"/>
       <c r="N147" s="8">
+        <v>101.6</v>
+      </c>
+      <c r="O147" s="8">
         <v>101.7</v>
-      </c>
-      <c r="O147" s="8">
-        <v>101.8</v>
       </c>
       <c r="P147" s="8"/>
       <c r="Q147" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R147" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S147" s="8"/>
       <c r="T147" s="8">
@@ -14228,7 +14332,7 @@
         <v>100.8</v>
       </c>
       <c r="C148" s="8">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8">
@@ -14260,7 +14364,7 @@
       </c>
       <c r="P148" s="8"/>
       <c r="Q148" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R148" s="8">
         <v>0.7</v>
@@ -14324,7 +14428,7 @@
         <v>1.4</v>
       </c>
       <c r="R149" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S149" s="8"/>
       <c r="T149" s="8">
@@ -14375,14 +14479,14 @@
       </c>
       <c r="M150" s="8"/>
       <c r="N150" s="8">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="O150" s="8">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="P150" s="8"/>
       <c r="Q150" s="8">
-        <v>-9.6</v>
+        <v>-9.5</v>
       </c>
       <c r="R150" s="8">
         <v>-9.4</v>
@@ -14408,21 +14512,21 @@
         <v>44075</v>
       </c>
       <c r="B151" s="8">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="C151" s="8">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="F151" s="8">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="I151" s="8">
         <v>92.3</v>
@@ -14432,21 +14536,21 @@
         <v>-1.2</v>
       </c>
       <c r="L151" s="8">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="M151" s="8"/>
       <c r="N151" s="8">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="O151" s="8">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="P151" s="8"/>
       <c r="Q151" s="8">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="R151" s="8">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="S151" s="8"/>
       <c r="T151" s="8">
@@ -14460,7 +14564,7 @@
         <v>-2.1</v>
       </c>
       <c r="X151" s="8">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="Y151" s="8"/>
     </row>
@@ -14472,11 +14576,11 @@
         <v>98.1</v>
       </c>
       <c r="C152" s="8">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="F152" s="8">
         <v>7.7</v>
@@ -14486,7 +14590,7 @@
         <v>96.7</v>
       </c>
       <c r="I152" s="8">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="8">
@@ -14497,28 +14601,28 @@
       </c>
       <c r="M152" s="8"/>
       <c r="N152" s="8">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="O152" s="8">
         <v>100.3</v>
       </c>
       <c r="P152" s="8"/>
       <c r="Q152" s="8">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="R152" s="8">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="U152" s="8">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="V152" s="8"/>
       <c r="W152" s="8">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X152" s="8">
         <v>7.1</v>
@@ -14530,59 +14634,59 @@
         <v>44256</v>
       </c>
       <c r="B153" s="8">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="C153" s="8">
         <v>102.1</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F153" s="8">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="I153" s="8">
         <v>98.7</v>
       </c>
       <c r="J153" s="8"/>
       <c r="K153" s="8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L153" s="8">
         <v>0.3</v>
       </c>
       <c r="M153" s="8"/>
       <c r="N153" s="8">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="O153" s="8">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="P153" s="8"/>
       <c r="Q153" s="8">
         <v>2.9</v>
       </c>
       <c r="R153" s="8">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S153" s="8"/>
       <c r="T153" s="8">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="U153" s="8">
-        <v>98.9</v>
+        <v>99.1</v>
       </c>
       <c r="V153" s="8"/>
       <c r="W153" s="8">
         <v>1.4</v>
       </c>
       <c r="X153" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y153" s="8"/>
     </row>
@@ -14591,14 +14695,14 @@
         <v>44348</v>
       </c>
       <c r="B154" s="8">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="C154" s="8">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="F154" s="8">
         <v>2.4</v>
@@ -14619,10 +14723,10 @@
       </c>
       <c r="M154" s="8"/>
       <c r="N154" s="8">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="O154" s="8">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="P154" s="8"/>
       <c r="Q154" s="8">
@@ -14633,17 +14737,17 @@
       </c>
       <c r="S154" s="8"/>
       <c r="T154" s="8">
+        <v>99.4</v>
+      </c>
+      <c r="U154" s="8">
         <v>99.3</v>
-      </c>
-      <c r="U154" s="8">
-        <v>99.2</v>
       </c>
       <c r="V154" s="8"/>
       <c r="W154" s="8">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="X154" s="8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y154" s="8"/>
     </row>
@@ -14652,10 +14756,10 @@
         <v>44440</v>
       </c>
       <c r="B155" s="8">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="C155" s="8">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8">
@@ -14697,14 +14801,14 @@
         <v>99</v>
       </c>
       <c r="U155" s="8">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="V155" s="8"/>
       <c r="W155" s="8">
         <v>-0.4</v>
       </c>
       <c r="X155" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y155" s="8"/>
     </row>
@@ -14713,61 +14817,122 @@
         <v>44531</v>
       </c>
       <c r="B156" s="8">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="C156" s="8">
-        <v>105.4</v>
+        <v>105</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="F156" s="8">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="I156" s="8">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="8">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="L156" s="8">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="M156" s="8"/>
       <c r="N156" s="8">
         <v>105.9</v>
       </c>
       <c r="O156" s="8">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="P156" s="8"/>
       <c r="Q156" s="8">
         <v>-0.7</v>
       </c>
       <c r="R156" s="8">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="S156" s="8"/>
       <c r="T156" s="8">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="U156" s="8">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="V156" s="8"/>
       <c r="W156" s="8">
         <v>0</v>
       </c>
       <c r="X156" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="Y156" s="8"/>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A157" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B157" s="8">
+        <v>106.5</v>
+      </c>
+      <c r="C157" s="8">
+        <v>105.9</v>
+      </c>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="F157" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8">
+        <v>96.2</v>
+      </c>
+      <c r="I157" s="8">
+        <v>96.1</v>
+      </c>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8">
         <v>-0.1</v>
       </c>
-      <c r="Y156" s="8"/>
+      <c r="L157" s="8">
+        <v>-2</v>
+      </c>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8">
+        <v>107.6</v>
+      </c>
+      <c r="O157" s="8">
+        <v>106.8</v>
+      </c>
+      <c r="P157" s="8"/>
+      <c r="Q157" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="R157" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S157" s="8"/>
+      <c r="T157" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="U157" s="8">
+        <v>97.2</v>
+      </c>
+      <c r="V157" s="8"/>
+      <c r="W157" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="X157" s="8">
+        <v>-2.4</v>
+      </c>
+      <c r="Y157" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
